--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,51 +46,60 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -100,28 +109,37 @@
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -130,16 +148,13 @@
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -148,24 +163,18 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -182,6 +194,9 @@
   </si>
   <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -548,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,37 +732,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.796875</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7634408602150538</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C6">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.5849056603773585</v>
+        <v>0.578125</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7524271844660194</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C7">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,16 +853,16 @@
         <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.484375</v>
+        <v>0.3631147540983606</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7464788732394366</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7090909090909091</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.3639344262295082</v>
+        <v>0.3070539419087137</v>
       </c>
       <c r="L9">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="M9">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>776</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6891891891891891</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.3256814921090387</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L10">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>470</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.2883817427385892</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L11">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>343</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.2409638554216867</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>126</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5101449275362319</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.2110091743119266</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>258</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5060240963855421</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.1746031746031746</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4566929133858268</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.09640666082383874</v>
+        <v>0.1007887817703769</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4421052631578947</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,31 +1300,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.05584415584415584</v>
+        <v>0.04802076573653472</v>
       </c>
       <c r="L16">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1454</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1317,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3370786516853932</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1343,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3267326732673267</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C18">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1361,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>136</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1369,13 +1384,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3203125</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1387,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1395,13 +1410,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3080568720379147</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1413,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1421,13 +1436,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2905982905982906</v>
+        <v>0.390625</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1439,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1447,13 +1462,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2680412371134021</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1465,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1473,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2183544303797468</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C23">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1491,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>247</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1499,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2028985507246377</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1517,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>220</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1525,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2009345794392523</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1543,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1551,13 +1566,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1930379746835443</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1569,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1577,13 +1592,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.19</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1595,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1603,25 +1618,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1827637444279346</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C28">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>550</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1629,13 +1644,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1666666666666667</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1647,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1655,13 +1670,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1541850220264317</v>
+        <v>0.1869436201780415</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1673,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>384</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1681,25 +1696,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1219512195121951</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>32</v>
       </c>
       <c r="E31">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1707,13 +1722,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0958904109589041</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1725,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1733,13 +1748,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09014084507042254</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1751,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>323</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1759,25 +1774,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08745874587458746</v>
+        <v>0.1567328918322296</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>553</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1785,13 +1800,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.066815144766147</v>
+        <v>0.155</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1803,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>419</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1811,13 +1826,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.04434250764525994</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>0.03</v>
@@ -1829,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>625</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1837,25 +1852,155 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.03792667509481669</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>761</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.09863013698630137</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.0779510022271715</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.07236842105263158</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.07209302325581396</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>0.11</v>
+      </c>
+      <c r="F41">
+        <v>0.89</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.04556962025316456</v>
+      </c>
+      <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>0.9</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
